--- a/Agosto/07 agosto/frontera comalapa/ARCHIVO EVALUATEC2024- (2 ETAPA).xlsx
+++ b/Agosto/07 agosto/frontera comalapa/ARCHIVO EVALUATEC2024- (2 ETAPA).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\07 agosto\frontera comalapa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxoC\OneDrive\Documents\EVALUATEC2024\Agosto\07 agosto\frontera comalapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF1B41B-0C36-4126-A40E-CC83869F05BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9BCF6E-CAC0-4FDD-931E-BD987CD9D23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUATEC" sheetId="5" r:id="rId1"/>
@@ -566,7 +566,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -746,7 +746,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,13 +849,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1183,9 +1196,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1195,7 +1211,11 @@
     <col min="4" max="4" width="36.125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="37.75" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="44" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="41"/>
+    <col min="11" max="11" width="12.75" style="44" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1221,16 +1241,16 @@
       <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="39" t="s">
@@ -1240,7 +1260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>75</v>
       </c>
@@ -1265,13 +1285,13 @@
       <c r="H2" s="29">
         <v>45499</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="46">
         <v>0.375</v>
       </c>
       <c r="J2" s="29">
         <v>45511</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="43">
         <v>0.375</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -1281,7 +1301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>77</v>
       </c>
@@ -1306,13 +1326,13 @@
       <c r="H3" s="29">
         <v>45499</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="46">
         <v>0.375</v>
       </c>
       <c r="J3" s="29">
         <v>45511</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="43">
         <v>0.375</v>
       </c>
       <c r="L3" s="18" t="s">
@@ -1322,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>78</v>
       </c>
@@ -1347,13 +1367,13 @@
       <c r="H4" s="29">
         <v>45499</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="46">
         <v>0.375</v>
       </c>
       <c r="J4" s="29">
         <v>45511</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="43">
         <v>0.375</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -1363,7 +1383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>79</v>
       </c>
@@ -1388,13 +1408,13 @@
       <c r="H5" s="29">
         <v>45499</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="46">
         <v>0.375</v>
       </c>
       <c r="J5" s="29">
         <v>45511</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="43">
         <v>0.375</v>
       </c>
       <c r="L5" s="18" t="s">
@@ -1404,7 +1424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>80</v>
       </c>
@@ -1429,13 +1449,13 @@
       <c r="H6" s="29">
         <v>45499</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="46">
         <v>0.375</v>
       </c>
       <c r="J6" s="29">
         <v>45511</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="43">
         <v>0.375</v>
       </c>
       <c r="L6" s="18" t="s">
@@ -1445,7 +1465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>81</v>
       </c>
@@ -1470,13 +1490,13 @@
       <c r="H7" s="29">
         <v>45499</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="46">
         <v>0.375</v>
       </c>
       <c r="J7" s="29">
         <v>45511</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="43">
         <v>0.375</v>
       </c>
       <c r="L7" s="18" t="s">
@@ -1486,7 +1506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>89</v>
       </c>
@@ -1511,13 +1531,13 @@
       <c r="H8" s="29">
         <v>45499</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="46">
         <v>0.375</v>
       </c>
       <c r="J8" s="29">
         <v>45511</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="43">
         <v>0.375</v>
       </c>
       <c r="L8" s="18" t="s">
@@ -1527,7 +1547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>93</v>
       </c>
@@ -1552,13 +1572,13 @@
       <c r="H9" s="29">
         <v>45499</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="46">
         <v>0.375</v>
       </c>
       <c r="J9" s="29">
         <v>45511</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="43">
         <v>0.375</v>
       </c>
       <c r="L9" s="18" t="s">
@@ -1568,7 +1588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>96</v>
       </c>
@@ -1593,13 +1613,13 @@
       <c r="H10" s="29">
         <v>45499</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="46">
         <v>0.375</v>
       </c>
       <c r="J10" s="29">
         <v>45511</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="43">
         <v>0.375</v>
       </c>
       <c r="L10" s="18" t="s">
@@ -1609,7 +1629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>82</v>
       </c>
@@ -1634,13 +1654,13 @@
       <c r="H11" s="29">
         <v>45499</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="46">
         <v>0.375</v>
       </c>
       <c r="J11" s="29">
         <v>45511</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="43">
         <v>0.375</v>
       </c>
       <c r="L11" s="18" t="s">
@@ -1650,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>86</v>
       </c>
@@ -1675,13 +1695,13 @@
       <c r="H12" s="29">
         <v>45499</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="46">
         <v>0.375</v>
       </c>
       <c r="J12" s="29">
         <v>45511</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="43">
         <v>0.375</v>
       </c>
       <c r="L12" s="18" t="s">
@@ -1691,7 +1711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>87</v>
       </c>
@@ -1716,13 +1736,13 @@
       <c r="H13" s="29">
         <v>45499</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="46">
         <v>0.375</v>
       </c>
       <c r="J13" s="29">
         <v>45511</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="43">
         <v>0.375</v>
       </c>
       <c r="L13" s="18" t="s">
@@ -1732,7 +1752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>88</v>
       </c>
@@ -1757,13 +1777,13 @@
       <c r="H14" s="29">
         <v>45499</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="46">
         <v>0.375</v>
       </c>
       <c r="J14" s="29">
         <v>45511</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="43">
         <v>0.375</v>
       </c>
       <c r="L14" s="18" t="s">
@@ -1773,7 +1793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>90</v>
       </c>
@@ -1798,13 +1818,13 @@
       <c r="H15" s="29">
         <v>45499</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="46">
         <v>0.375</v>
       </c>
       <c r="J15" s="29">
         <v>45511</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="43">
         <v>0.375</v>
       </c>
       <c r="L15" s="18" t="s">
@@ -1814,7 +1834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>91</v>
       </c>
@@ -1839,13 +1859,13 @@
       <c r="H16" s="29">
         <v>45499</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="46">
         <v>0.375</v>
       </c>
       <c r="J16" s="29">
         <v>45511</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="43">
         <v>0.375</v>
       </c>
       <c r="L16" s="18" t="s">
@@ -1855,7 +1875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>94</v>
       </c>
@@ -1880,13 +1900,13 @@
       <c r="H17" s="29">
         <v>45499</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="46">
         <v>0.375</v>
       </c>
       <c r="J17" s="29">
         <v>45511</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="43">
         <v>0.375</v>
       </c>
       <c r="L17" s="18" t="s">
@@ -1896,7 +1916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>95</v>
       </c>
@@ -1921,13 +1941,13 @@
       <c r="H18" s="29">
         <v>45499</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="46">
         <v>0.375</v>
       </c>
       <c r="J18" s="29">
         <v>45511</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="43">
         <v>0.375</v>
       </c>
       <c r="L18" s="18" t="s">
@@ -1937,7 +1957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>101</v>
       </c>
@@ -1959,16 +1979,16 @@
       <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="H19">
-        <v>45499</v>
-      </c>
-      <c r="I19">
-        <v>0.375</v>
-      </c>
-      <c r="J19">
-        <v>45511</v>
-      </c>
-      <c r="K19" s="42">
+      <c r="H19" s="41">
+        <v>45499</v>
+      </c>
+      <c r="I19" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="J19" s="41">
+        <v>45511</v>
+      </c>
+      <c r="K19" s="44">
         <v>0.375</v>
       </c>
       <c r="L19" t="s">
@@ -1978,7 +1998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>114</v>
       </c>
@@ -2000,16 +2020,16 @@
       <c r="G20" t="s">
         <v>18</v>
       </c>
-      <c r="H20">
-        <v>45499</v>
-      </c>
-      <c r="I20">
-        <v>0.375</v>
-      </c>
-      <c r="J20">
-        <v>45511</v>
-      </c>
-      <c r="K20" s="42">
+      <c r="H20" s="41">
+        <v>45499</v>
+      </c>
+      <c r="I20" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="J20" s="41">
+        <v>45511</v>
+      </c>
+      <c r="K20" s="44">
         <v>0.375</v>
       </c>
       <c r="L20" t="s">
@@ -2019,7 +2039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>43</v>
       </c>
@@ -2044,13 +2064,13 @@
       <c r="H21" s="29">
         <v>45499</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="46">
         <v>0.375</v>
       </c>
       <c r="J21" s="29">
         <v>45511</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="43">
         <v>0.375</v>
       </c>
       <c r="L21" s="18" t="s">
@@ -2060,7 +2080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>69</v>
       </c>
@@ -2085,13 +2105,13 @@
       <c r="H22" s="29">
         <v>45499</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="46">
         <v>0.375</v>
       </c>
       <c r="J22" s="29">
         <v>45511</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="43">
         <v>0.375</v>
       </c>
       <c r="L22" s="18" t="s">
@@ -2101,7 +2121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>55</v>
       </c>
@@ -2126,13 +2146,13 @@
       <c r="H23" s="29">
         <v>45499</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="46">
         <v>0.375</v>
       </c>
       <c r="J23" s="29">
         <v>45511</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="43">
         <v>0.375</v>
       </c>
       <c r="L23" s="18" t="s">
@@ -2142,7 +2162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>85</v>
       </c>
@@ -2167,13 +2187,13 @@
       <c r="H24" s="29">
         <v>45499</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="46">
         <v>0.375</v>
       </c>
       <c r="J24" s="29">
         <v>45511</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="43">
         <v>0.375</v>
       </c>
       <c r="L24" s="18" t="s">
@@ -2183,7 +2203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>22</v>
       </c>
@@ -2208,13 +2228,13 @@
       <c r="H25" s="29">
         <v>45499</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="46">
         <v>0.375</v>
       </c>
       <c r="J25" s="29">
         <v>45511</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="43">
         <v>0.375</v>
       </c>
       <c r="L25" s="18" t="s">
@@ -2224,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>83</v>
       </c>
@@ -2249,13 +2269,13 @@
       <c r="H26" s="29">
         <v>45499</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="46">
         <v>0.375</v>
       </c>
       <c r="J26" s="29">
         <v>45511</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="43">
         <v>0.375</v>
       </c>
       <c r="L26" s="18" t="s">
@@ -2265,7 +2285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>92</v>
       </c>
@@ -2290,13 +2310,13 @@
       <c r="H27" s="29">
         <v>45499</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="46">
         <v>0.375</v>
       </c>
       <c r="J27" s="29">
         <v>45511</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="43">
         <v>0.375</v>
       </c>
       <c r="L27" s="18" t="s">
@@ -2306,7 +2326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>76</v>
       </c>
@@ -2331,13 +2351,13 @@
       <c r="H28" s="29">
         <v>45499</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="46">
         <v>0.375</v>
       </c>
       <c r="J28" s="29">
         <v>45511</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="43">
         <v>0.375</v>
       </c>
       <c r="L28" s="18" t="s">
@@ -2347,7 +2367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>104</v>
       </c>
@@ -2369,16 +2389,16 @@
       <c r="G29" t="s">
         <v>18</v>
       </c>
-      <c r="H29">
-        <v>45499</v>
-      </c>
-      <c r="I29">
-        <v>0.375</v>
-      </c>
-      <c r="J29">
-        <v>45511</v>
-      </c>
-      <c r="K29" s="42">
+      <c r="H29" s="41">
+        <v>45499</v>
+      </c>
+      <c r="I29" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="J29" s="41">
+        <v>45511</v>
+      </c>
+      <c r="K29" s="44">
         <v>0.375</v>
       </c>
       <c r="L29" t="s">
@@ -2413,13 +2433,13 @@
       <c r="H30" s="29">
         <v>45499</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="46">
         <v>0.375</v>
       </c>
       <c r="J30" s="29">
         <v>45511</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="43">
         <v>0.5</v>
       </c>
       <c r="L30" s="18" t="s">
@@ -2454,13 +2474,13 @@
       <c r="H31" s="29">
         <v>45499</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="46">
         <v>0.375</v>
       </c>
       <c r="J31" s="29">
         <v>45511</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="43">
         <v>0.5</v>
       </c>
       <c r="L31" s="18" t="s">
@@ -2470,7 +2490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -2495,13 +2515,13 @@
       <c r="H32" s="29">
         <v>45499</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="46">
         <v>0.375</v>
       </c>
       <c r="J32" s="29">
         <v>45511</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="43">
         <v>0.375</v>
       </c>
       <c r="L32" s="18" t="s">
@@ -2511,7 +2531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>65</v>
       </c>
@@ -2536,13 +2556,13 @@
       <c r="H33" s="29">
         <v>45499</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="46">
         <v>0.375</v>
       </c>
       <c r="J33" s="29">
         <v>45511</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="43">
         <v>0.375</v>
       </c>
       <c r="L33" s="18" t="s">
@@ -2552,7 +2572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>24</v>
       </c>
@@ -2577,13 +2597,13 @@
       <c r="H34" s="29">
         <v>45499</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="46">
         <v>0.375</v>
       </c>
       <c r="J34" s="29">
         <v>45511</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="43">
         <v>0.375</v>
       </c>
       <c r="L34" s="18" t="s">
@@ -2593,7 +2613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>84</v>
       </c>
@@ -2618,13 +2638,13 @@
       <c r="H35" s="29">
         <v>45499</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="46">
         <v>0.375</v>
       </c>
       <c r="J35" s="29">
         <v>45511</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="43">
         <v>0.375</v>
       </c>
       <c r="L35" s="18" t="s">
@@ -2634,59 +2654,59 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
-        <v>99</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="30" t="s">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="29">
-        <v>45499</v>
-      </c>
-      <c r="I36" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="J36" s="29">
-        <v>45511</v>
-      </c>
-      <c r="K36" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="18" t="s">
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="41">
+        <v>45499</v>
+      </c>
+      <c r="I36" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="J36" s="41">
+        <v>45511</v>
+      </c>
+      <c r="K36" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>16</v>
@@ -2700,13 +2720,13 @@
       <c r="H37" s="29">
         <v>45499</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="46">
         <v>0.375</v>
       </c>
       <c r="J37" s="29">
         <v>45511</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="43">
         <v>0.5</v>
       </c>
       <c r="L37" s="18" t="s">
@@ -2718,16 +2738,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
+        <v>106</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>110</v>
-      </c>
       <c r="D38" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>16</v>
@@ -2741,13 +2761,13 @@
       <c r="H38" s="29">
         <v>45499</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="46">
         <v>0.375</v>
       </c>
       <c r="J38" s="29">
         <v>45511</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="43">
         <v>0.5</v>
       </c>
       <c r="L38" s="18" t="s">
@@ -2759,16 +2779,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>16</v>
@@ -2782,13 +2802,13 @@
       <c r="H39" s="29">
         <v>45499</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="46">
         <v>0.375</v>
       </c>
       <c r="J39" s="29">
         <v>45511</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K39" s="43">
         <v>0.5</v>
       </c>
       <c r="L39" s="18" t="s">
@@ -2800,16 +2820,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
+        <v>108</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>124</v>
-      </c>
       <c r="C40" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>16</v>
@@ -2823,13 +2843,13 @@
       <c r="H40" s="29">
         <v>45499</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="46">
         <v>0.375</v>
       </c>
       <c r="J40" s="29">
         <v>45511</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="43">
         <v>0.5</v>
       </c>
       <c r="L40" s="18" t="s">
@@ -2840,43 +2860,43 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>116</v>
-      </c>
-      <c r="B41" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="A41" s="30">
+        <v>112</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F41" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41">
-        <v>45499</v>
-      </c>
-      <c r="I41">
-        <v>0.375</v>
-      </c>
-      <c r="J41">
-        <v>45511</v>
-      </c>
-      <c r="K41">
-        <v>0.375</v>
-      </c>
-      <c r="L41" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="F41" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="29">
+        <v>45499</v>
+      </c>
+      <c r="I41" s="46">
+        <v>0.375</v>
+      </c>
+      <c r="J41" s="29">
+        <v>45511</v>
+      </c>
+      <c r="K41" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2905,13 +2925,13 @@
       <c r="H42" s="29">
         <v>45499</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="46">
         <v>0.375</v>
       </c>
       <c r="J42" s="29">
         <v>45511</v>
       </c>
-      <c r="K42" s="41">
+      <c r="K42" s="43">
         <v>0.5</v>
       </c>
       <c r="L42" s="18" t="s">
@@ -2946,13 +2966,13 @@
       <c r="H43" s="29">
         <v>45499</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="46">
         <v>0.375</v>
       </c>
       <c r="J43" s="29">
         <v>45511</v>
       </c>
-      <c r="K43" s="41">
+      <c r="K43" s="43">
         <v>0.5</v>
       </c>
       <c r="L43" s="18" t="s">
@@ -2987,13 +3007,13 @@
       <c r="H44" s="29">
         <v>45499</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="46">
         <v>0.375</v>
       </c>
       <c r="J44" s="29">
         <v>45511</v>
       </c>
-      <c r="K44" s="41">
+      <c r="K44" s="43">
         <v>0.5</v>
       </c>
       <c r="L44" s="18" t="s">
@@ -3028,13 +3048,13 @@
       <c r="H45" s="29">
         <v>45499</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="46">
         <v>0.375</v>
       </c>
       <c r="J45" s="29">
         <v>45511</v>
       </c>
-      <c r="K45" s="41">
+      <c r="K45" s="43">
         <v>0.5</v>
       </c>
       <c r="L45" s="18" t="s">
@@ -3069,13 +3089,13 @@
       <c r="H46" s="29">
         <v>45499</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="46">
         <v>0.375</v>
       </c>
       <c r="J46" s="29">
         <v>45511</v>
       </c>
-      <c r="K46" s="41">
+      <c r="K46" s="43">
         <v>0.5</v>
       </c>
       <c r="L46" s="18" t="s">
@@ -3110,13 +3130,13 @@
       <c r="H47" s="29">
         <v>45499</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="46">
         <v>0.375</v>
       </c>
       <c r="J47" s="29">
         <v>45511</v>
       </c>
-      <c r="K47" s="41">
+      <c r="K47" s="43">
         <v>0.5</v>
       </c>
       <c r="L47" s="18" t="s">
@@ -3151,13 +3171,13 @@
       <c r="H48" s="29">
         <v>45499</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="46">
         <v>0.375</v>
       </c>
       <c r="J48" s="29">
         <v>45511</v>
       </c>
-      <c r="K48" s="41">
+      <c r="K48" s="43">
         <v>0.5</v>
       </c>
       <c r="L48" s="18" t="s">
@@ -3192,13 +3212,13 @@
       <c r="H49" s="29">
         <v>45499</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="46">
         <v>0.375</v>
       </c>
       <c r="J49" s="29">
         <v>45511</v>
       </c>
-      <c r="K49" s="41">
+      <c r="K49" s="43">
         <v>0.5</v>
       </c>
       <c r="L49" s="18" t="s">
@@ -3233,13 +3253,13 @@
       <c r="H50" s="29">
         <v>45499</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="46">
         <v>0.375</v>
       </c>
       <c r="J50" s="29">
         <v>45511</v>
       </c>
-      <c r="K50" s="41">
+      <c r="K50" s="43">
         <v>0.5</v>
       </c>
       <c r="L50" s="18" t="s">
@@ -3251,6 +3271,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="12:00:00 p. m."/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M50">
       <sortCondition ref="K1:K50"/>
     </sortState>
@@ -3261,7 +3286,7 @@
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D36" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D37" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
